--- a/published-data/fonds-solidarite/fds-2022-06-09/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-09/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -29470,13 +29470,13 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>32327</v>
+        <v>32328</v>
       </c>
       <c r="D570" t="n">
         <v>3276</v>
       </c>
       <c r="E570" t="n">
-        <v>232292393</v>
+        <v>232297456</v>
       </c>
       <c r="F570" t="inlineStr">
         <is>
@@ -29725,13 +29725,13 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>6467</v>
+        <v>6468</v>
       </c>
       <c r="D575" t="n">
         <v>1216</v>
       </c>
       <c r="E575" t="n">
-        <v>24903266</v>
+        <v>24913266</v>
       </c>
       <c r="F575" t="inlineStr">
         <is>
@@ -38803,13 +38803,13 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>58626</v>
+        <v>58628</v>
       </c>
       <c r="D753" t="n">
         <v>6091</v>
       </c>
       <c r="E753" t="n">
-        <v>334438707</v>
+        <v>334499353</v>
       </c>
       <c r="F753" t="inlineStr">
         <is>
@@ -42118,13 +42118,13 @@
         </is>
       </c>
       <c r="C818" t="n">
-        <v>18672</v>
+        <v>18674</v>
       </c>
       <c r="D818" t="n">
         <v>4377</v>
       </c>
       <c r="E818" t="n">
-        <v>59941711</v>
+        <v>60113007</v>
       </c>
       <c r="F818" t="inlineStr">
         <is>
@@ -43342,13 +43342,13 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>17788</v>
+        <v>17789</v>
       </c>
       <c r="D842" t="n">
         <v>2366</v>
       </c>
       <c r="E842" t="n">
-        <v>135461726</v>
+        <v>135471726</v>
       </c>
       <c r="F842" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108629</v>
+        <v>108630</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>561348642</v>
+        <v>561384833</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60060</v>
+        <v>60061</v>
       </c>
       <c r="D855" t="n">
         <v>9813</v>
       </c>
       <c r="E855" t="n">
-        <v>288591900</v>
+        <v>288594183</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183900</v>
+        <v>183902</v>
       </c>
       <c r="D858" t="n">
         <v>35382</v>
       </c>
       <c r="E858" t="n">
-        <v>553707597</v>
+        <v>553780339</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51319</v>
+        <v>51320</v>
       </c>
       <c r="D859" t="n">
         <v>6432</v>
       </c>
       <c r="E859" t="n">
-        <v>424022060</v>
+        <v>424093920</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127501</v>
+        <v>127502</v>
       </c>
       <c r="D887" t="n">
         <v>13775</v>
       </c>
       <c r="E887" t="n">
-        <v>277443956</v>
+        <v>277446622</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -45688,13 +45688,13 @@
         </is>
       </c>
       <c r="C888" t="n">
-        <v>32744</v>
+        <v>32745</v>
       </c>
       <c r="D888" t="n">
         <v>3651</v>
       </c>
       <c r="E888" t="n">
-        <v>189686893</v>
+        <v>189688723</v>
       </c>
       <c r="F888" t="inlineStr">
         <is>
@@ -46147,13 +46147,13 @@
         </is>
       </c>
       <c r="C897" t="n">
-        <v>11614</v>
+        <v>11617</v>
       </c>
       <c r="D897" t="n">
         <v>2464</v>
       </c>
       <c r="E897" t="n">
-        <v>25244845</v>
+        <v>25274845</v>
       </c>
       <c r="F897" t="inlineStr">
         <is>
@@ -47320,13 +47320,13 @@
         </is>
       </c>
       <c r="C920" t="n">
-        <v>20323</v>
+        <v>20324</v>
       </c>
       <c r="D920" t="n">
         <v>4581</v>
       </c>
       <c r="E920" t="n">
-        <v>65613405</v>
+        <v>65643869</v>
       </c>
       <c r="F920" t="inlineStr">
         <is>
@@ -49156,13 +49156,13 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>19708</v>
+        <v>19710</v>
       </c>
       <c r="D956" t="n">
         <v>2625</v>
       </c>
       <c r="E956" t="n">
-        <v>66154634</v>
+        <v>66163080</v>
       </c>
       <c r="F956" t="inlineStr">
         <is>
@@ -49972,13 +49972,13 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>4759</v>
+        <v>4760</v>
       </c>
       <c r="D972" t="n">
         <v>729</v>
       </c>
       <c r="E972" t="n">
-        <v>11763349</v>
+        <v>11797399</v>
       </c>
       <c r="F972" t="inlineStr">
         <is>
@@ -82204,13 +82204,13 @@
         </is>
       </c>
       <c r="C1604" t="n">
-        <v>57613</v>
+        <v>57614</v>
       </c>
       <c r="D1604" t="n">
         <v>5837</v>
       </c>
       <c r="E1604" t="n">
-        <v>413575810</v>
+        <v>413630425</v>
       </c>
       <c r="F1604" t="inlineStr">
         <is>
@@ -85672,13 +85672,13 @@
         </is>
       </c>
       <c r="C1672" t="n">
-        <v>25341</v>
+        <v>25347</v>
       </c>
       <c r="D1672" t="n">
         <v>2703</v>
       </c>
       <c r="E1672" t="n">
-        <v>143603429</v>
+        <v>143663429</v>
       </c>
       <c r="F1672" t="inlineStr">
         <is>
